--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nppc-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nppc-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Nppc</t>
+  </si>
+  <si>
+    <t>Npr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Nppc</t>
-  </si>
-  <si>
-    <t>Npr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.780679</v>
+        <v>0.1248335</v>
       </c>
       <c r="H2">
-        <v>1.561358</v>
+        <v>0.249667</v>
       </c>
       <c r="I2">
-        <v>0.7765663048495169</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6985288624016814</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.947853</v>
+        <v>14.90149</v>
       </c>
       <c r="N2">
-        <v>35.895706</v>
+        <v>29.80298</v>
       </c>
       <c r="O2">
-        <v>0.4337138114960137</v>
+        <v>0.6500037349667589</v>
       </c>
       <c r="P2">
-        <v>0.3586943164132273</v>
+        <v>0.5900818232956493</v>
       </c>
       <c r="Q2">
-        <v>14.011511932187</v>
+        <v>1.860205151915</v>
       </c>
       <c r="R2">
-        <v>56.04604772874801</v>
+        <v>7.44082060766</v>
       </c>
       <c r="S2">
-        <v>0.3368075319556593</v>
+        <v>0.6500037349667589</v>
       </c>
       <c r="T2">
-        <v>0.2505583327940805</v>
+        <v>0.5900818232956493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.780679</v>
+        <v>0.1248335</v>
       </c>
       <c r="H3">
-        <v>1.561358</v>
+        <v>0.249667</v>
       </c>
       <c r="I3">
-        <v>0.7765663048495169</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6985288624016814</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.537805333333333</v>
+        <v>4.537805333333334</v>
       </c>
       <c r="N3">
         <v>13.613416</v>
       </c>
       <c r="O3">
-        <v>0.1096570629894806</v>
+        <v>0.1979392943402804</v>
       </c>
       <c r="P3">
-        <v>0.1360345147179691</v>
+        <v>0.2695377889916433</v>
       </c>
       <c r="Q3">
-        <v>3.542569329821333</v>
+        <v>0.5664701220786668</v>
       </c>
       <c r="R3">
-        <v>21.255415978928</v>
+        <v>3.398820732472</v>
       </c>
       <c r="S3">
-        <v>0.08515598020639167</v>
+        <v>0.1979392943402804</v>
       </c>
       <c r="T3">
-        <v>0.09502403481330772</v>
+        <v>0.2695377889916433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.780679</v>
+        <v>0.1248335</v>
       </c>
       <c r="H4">
-        <v>1.561358</v>
+        <v>0.249667</v>
       </c>
       <c r="I4">
-        <v>0.7765663048495169</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6985288624016814</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.124261000000001</v>
+        <v>0.06080433333333333</v>
       </c>
       <c r="N4">
-        <v>12.248522</v>
+        <v>0.182413</v>
       </c>
       <c r="O4">
-        <v>0.1479941127725076</v>
+        <v>0.002652288044271442</v>
       </c>
       <c r="P4">
-        <v>0.1223955652484555</v>
+        <v>0.003611672243273299</v>
       </c>
       <c r="Q4">
-        <v>4.781081953219001</v>
+        <v>0.007590417745166666</v>
       </c>
       <c r="R4">
-        <v>19.124327812876</v>
+        <v>0.045542506471</v>
       </c>
       <c r="S4">
-        <v>0.1149272412952289</v>
+        <v>0.002652288044271442</v>
       </c>
       <c r="T4">
-        <v>0.0854968349560144</v>
+        <v>0.003611672243273299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.1248335</v>
+      </c>
+      <c r="H5">
+        <v>0.249667</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.780679</v>
-      </c>
-      <c r="H5">
-        <v>1.561358</v>
-      </c>
-      <c r="I5">
-        <v>0.7765663048495169</v>
-      </c>
-      <c r="J5">
-        <v>0.6985288624016814</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.75897433333333</v>
+        <v>3.3677015</v>
       </c>
       <c r="N5">
-        <v>38.276923</v>
+        <v>6.735403</v>
       </c>
       <c r="O5">
-        <v>0.3083234183436765</v>
+        <v>0.1468993069319347</v>
       </c>
       <c r="P5">
-        <v>0.3824890567659189</v>
+        <v>0.1333570966014468</v>
       </c>
       <c r="Q5">
-        <v>9.960663323572334</v>
+        <v>0.42040196520025</v>
       </c>
       <c r="R5">
-        <v>59.76397994143399</v>
+        <v>1.681607860801</v>
       </c>
       <c r="S5">
-        <v>0.2394335776817206</v>
+        <v>0.1468993069319347</v>
       </c>
       <c r="T5">
-        <v>0.2671796457037895</v>
+        <v>0.1333570966014468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.780679</v>
+        <v>0.1248335</v>
       </c>
       <c r="H6">
-        <v>1.561358</v>
+        <v>0.249667</v>
       </c>
       <c r="I6">
-        <v>0.7765663048495169</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.6985288624016814</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,338 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01289433333333333</v>
+        <v>0.05743633333333333</v>
       </c>
       <c r="N6">
-        <v>0.038683</v>
+        <v>0.172309</v>
       </c>
       <c r="O6">
-        <v>0.000311594398321632</v>
+        <v>0.002505375716754661</v>
       </c>
       <c r="P6">
-        <v>0.0003865468544291306</v>
+        <v>0.003411618867987363</v>
       </c>
       <c r="Q6">
-        <v>0.01006633525233333</v>
+        <v>0.007169978517166667</v>
       </c>
       <c r="R6">
-        <v>0.060398011514</v>
+        <v>0.043019871103</v>
       </c>
       <c r="S6">
-        <v>0.0002419737105164383</v>
+        <v>0.002505375716754661</v>
       </c>
       <c r="T6">
-        <v>0.0002700141344893289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.224617</v>
-      </c>
-      <c r="H7">
-        <v>0.673851</v>
-      </c>
-      <c r="I7">
-        <v>0.223433695150483</v>
-      </c>
-      <c r="J7">
-        <v>0.3014711375983185</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>17.947853</v>
-      </c>
-      <c r="N7">
-        <v>35.895706</v>
-      </c>
-      <c r="O7">
-        <v>0.4337138114960137</v>
-      </c>
-      <c r="P7">
-        <v>0.3586943164132273</v>
-      </c>
-      <c r="Q7">
-        <v>4.031392897301</v>
-      </c>
-      <c r="R7">
-        <v>24.188357383806</v>
-      </c>
-      <c r="S7">
-        <v>0.09690627954035438</v>
-      </c>
-      <c r="T7">
-        <v>0.1081359836191468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.224617</v>
-      </c>
-      <c r="H8">
-        <v>0.673851</v>
-      </c>
-      <c r="I8">
-        <v>0.223433695150483</v>
-      </c>
-      <c r="J8">
-        <v>0.3014711375983185</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>4.537805333333333</v>
-      </c>
-      <c r="N8">
-        <v>13.613416</v>
-      </c>
-      <c r="O8">
-        <v>0.1096570629894806</v>
-      </c>
-      <c r="P8">
-        <v>0.1360345147179691</v>
-      </c>
-      <c r="Q8">
-        <v>1.019268220557333</v>
-      </c>
-      <c r="R8">
-        <v>9.173413985015999</v>
-      </c>
-      <c r="S8">
-        <v>0.02450108278308892</v>
-      </c>
-      <c r="T8">
-        <v>0.04101047990466133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.224617</v>
-      </c>
-      <c r="H9">
-        <v>0.673851</v>
-      </c>
-      <c r="I9">
-        <v>0.223433695150483</v>
-      </c>
-      <c r="J9">
-        <v>0.3014711375983185</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.124261000000001</v>
-      </c>
-      <c r="N9">
-        <v>12.248522</v>
-      </c>
-      <c r="O9">
-        <v>0.1479941127725076</v>
-      </c>
-      <c r="P9">
-        <v>0.1223955652484555</v>
-      </c>
-      <c r="Q9">
-        <v>1.375613133037</v>
-      </c>
-      <c r="R9">
-        <v>8.253678798222001</v>
-      </c>
-      <c r="S9">
-        <v>0.03306687147727867</v>
-      </c>
-      <c r="T9">
-        <v>0.0368987302924411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.224617</v>
-      </c>
-      <c r="H10">
-        <v>0.673851</v>
-      </c>
-      <c r="I10">
-        <v>0.223433695150483</v>
-      </c>
-      <c r="J10">
-        <v>0.3014711375983185</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>12.75897433333333</v>
-      </c>
-      <c r="N10">
-        <v>38.276923</v>
-      </c>
-      <c r="O10">
-        <v>0.3083234183436765</v>
-      </c>
-      <c r="P10">
-        <v>0.3824890567659189</v>
-      </c>
-      <c r="Q10">
-        <v>2.865882537830333</v>
-      </c>
-      <c r="R10">
-        <v>25.792942840473</v>
-      </c>
-      <c r="S10">
-        <v>0.06888984066195586</v>
-      </c>
-      <c r="T10">
-        <v>0.1153094110621294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.224617</v>
-      </c>
-      <c r="H11">
-        <v>0.673851</v>
-      </c>
-      <c r="I11">
-        <v>0.223433695150483</v>
-      </c>
-      <c r="J11">
-        <v>0.3014711375983185</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01289433333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.038683</v>
-      </c>
-      <c r="O11">
-        <v>0.000311594398321632</v>
-      </c>
-      <c r="P11">
-        <v>0.0003865468544291306</v>
-      </c>
-      <c r="Q11">
-        <v>0.002896286470333333</v>
-      </c>
-      <c r="R11">
-        <v>0.02606657823299999</v>
-      </c>
-      <c r="S11">
-        <v>6.962068780519371E-05</v>
-      </c>
-      <c r="T11">
-        <v>0.0001165327199398016</v>
+        <v>0.003411618867987363</v>
       </c>
     </row>
   </sheetData>
